--- a/biology/Botanique/Fimbristylis_sunilii/Fimbristylis_sunilii.xlsx
+++ b/biology/Botanique/Fimbristylis_sunilii/Fimbristylis_sunilii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fimbristylis sunilii est une espèce de plantes à fleurs de la famille des Cyperaceae[1] . Cette espèce est originaire d'Inde et a été décrite pour la première fois en l'an 2021.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fimbristylis sunilii est une espèce de plantes à fleurs de la famille des Cyperaceae . Cette espèce est originaire d'Inde et a été décrite pour la première fois en l'an 2021.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fimbristylis sunilii est une plante monocotylédone. Elle est pérenne. Cette espèce peut mesurer de 20 à 59 cm de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fimbristylis sunilii est une plante monocotylédone. Elle est pérenne. Cette espèce peut mesurer de 20 à 59 cm de haut.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte en Inde et plus précisément dans le sud des Ghâts occidentaux dans le Kerala[3] à une altitude de 1 100 mètres.
-Étant donné le manque de données concernant son aire de distribution, il est encore impossible de savoir si elle est menacée d'extinction ou non[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Inde et plus précisément dans le sud des Ghâts occidentaux dans le Kerala à une altitude de 1 100 mètres.
+Étant donné le manque de données concernant son aire de distribution, il est encore impossible de savoir si elle est menacée d'extinction ou non.
 </t>
         </is>
       </c>
